--- a/tables/Table_S1_meta.xlsx
+++ b/tables/Table_S1_meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cong/Documents/GitHub/Taiji_ALTRA/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AAE511E-ACC4-FE48-BB75-04A17F5FADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AD9A99-346D-E643-9988-CAB9D4093073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{D95885FD-83F9-E74C-8A85-888C1A1B67E2}"/>
   </bookViews>
@@ -654,13 +654,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -694,6 +687,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB3BD01-3FFD-D848-B500-5F8E48B83A4B}" name="Table1" displayName="Table1" ref="A3:G15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB3BD01-3FFD-D848-B500-5F8E48B83A4B}" name="Table1" displayName="Table1" ref="A3:G15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A3:G15" xr:uid="{20660585-0816-7B4F-BC5A-90C90A2E7D2E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5193E210-7668-BE4C-8D94-9A6AA7E00BDF}" name="Group" dataDxfId="6"/>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DEE912-A590-2F44-8760-AA6588B1961F}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tables/Table_S1_meta.xlsx
+++ b/tables/Table_S1_meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cong/Documents/GitHub/Taiji_ALTRA/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AD9A99-346D-E643-9988-CAB9D4093073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE176FA-914C-5943-9E5B-34EDB559C129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{D95885FD-83F9-E74C-8A85-888C1A1B67E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <r>
       <t xml:space="preserve">Supplementary Table S1. </t>
@@ -289,6 +289,15 @@
       </rPr>
       <t xml:space="preserve"> values for continuous variables were calculated using the two-sample Wilcoxon rank-sum test. P values for categorical variables were calculated using Fisher's exact test. BMI, body mass index; MTX, methotrexate; IQR, interquartile range; RF, rheumatoid factor; SD, standard deviation   </t>
     </r>
+  </si>
+  <si>
+    <t>established RA</t>
+  </si>
+  <si>
+    <t>4 (80%)</t>
+  </si>
+  <si>
+    <t>53 (11)</t>
   </si>
 </sst>
 </file>
@@ -334,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -394,11 +403,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -410,11 +432,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -433,7 +465,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -466,7 +498,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -479,6 +511,43 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -745,16 +814,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB3BD01-3FFD-D848-B500-5F8E48B83A4B}" name="Table1" displayName="Table1" ref="A3:G15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A3:G15" xr:uid="{20660585-0816-7B4F-BC5A-90C90A2E7D2E}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5193E210-7668-BE4C-8D94-9A6AA7E00BDF}" name="Group" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CB5E5C51-E0DB-5948-A5FD-1A0092D40CD4}" name="CON" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{DEBD16C8-96D9-0944-B2E8-A5320CBA3F01}" name="At-Risk" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E3B0615A-31E9-CB4C-A754-55FCF2961725}" name="ERA" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{078FAC5D-64BA-A945-879F-8B38CB8F278D}" name="P-value CON to At-Risk" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{8E460C2C-D84D-E048-B3F8-5757DB8DD38D}" name="P-value At-Risk to ERA" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{6F3BCA2F-4E32-2D44-89CB-27DFDBADAA64}" name="P-value ERA to CON" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB3BD01-3FFD-D848-B500-5F8E48B83A4B}" name="Table1" displayName="Table1" ref="A3:H15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A3:H15" xr:uid="{20660585-0816-7B4F-BC5A-90C90A2E7D2E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5193E210-7668-BE4C-8D94-9A6AA7E00BDF}" name="Group" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CB5E5C51-E0DB-5948-A5FD-1A0092D40CD4}" name="CON" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DEBD16C8-96D9-0944-B2E8-A5320CBA3F01}" name="At-Risk" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E3B0615A-31E9-CB4C-A754-55FCF2961725}" name="ERA" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{078FAC5D-64BA-A945-879F-8B38CB8F278D}" name="established RA" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{8E460C2C-D84D-E048-B3F8-5757DB8DD38D}" name="P-value CON to At-Risk" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6F3BCA2F-4E32-2D44-89CB-27DFDBADAA64}" name="P-value At-Risk to ERA" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D15DB74C-696F-0545-B36B-1F92CDDF3DDF}" name="P-value ERA to CON" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1077,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DEE912-A590-2F44-8760-AA6588B1961F}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,12 +1162,12 @@
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1110,17 +1180,20 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1133,17 +1206,20 @@
       <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1156,17 +1232,20 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.25800000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="7">
         <v>0.154</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="7">
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1179,17 +1258,20 @@
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1202,17 +1284,20 @@
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="7">
         <v>0.15</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="7">
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1225,17 +1310,20 @@
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="7">
         <v>0.59</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1248,17 +1336,20 @@
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.70899999999999996</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="7">
         <v>0.308</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="7">
         <v>0.105</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -1271,11 +1362,14 @@
       <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1288,17 +1382,20 @@
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7">
         <v>0.41399999999999998</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="7">
         <v>0.46400000000000002</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="7">
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1311,17 +1408,20 @@
       <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="7">
         <v>0.46700000000000003</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="7">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1335,16 +1435,19 @@
         <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1358,16 +1461,19 @@
         <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1380,17 +1486,20 @@
       <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="9">
         <v>0.379</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="9">
         <v>1E-3</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" ht="19" x14ac:dyDescent="0.2">
